--- a/Evaluasi Model Klasifikasi BackUp.xlsx
+++ b/Evaluasi Model Klasifikasi BackUp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Latihan-Data-Science\klasifikasi_kopra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBBDEC6-771A-46A1-8A53-24B83BCBB41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E910683-21B9-4726-B9BE-87F424B2F006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hasil percobaan Split Validasi" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Literasi - Related Work" sheetId="3" r:id="rId3"/>
     <sheet name="Literasi - Result &amp; Discus" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1698052472" val="1064" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
@@ -812,6 +812,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -828,12 +834,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2194,7 +2194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T1" sqref="T1:AG2"/>
     </sheetView>
   </sheetViews>
@@ -2319,72 +2319,72 @@
       <c r="P4" s="42"/>
       <c r="R4" s="37"/>
       <c r="S4" s="37"/>
-      <c r="T4" s="44" t="s">
+      <c r="T4" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
     </row>
     <row r="6" spans="1:33" ht="12" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="R6" s="45" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="R6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45" t="s">
+      <c r="S6" s="47"/>
+      <c r="T6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45" t="s">
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
     </row>
     <row r="7" spans="1:33" ht="12" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="27">
         <v>1</v>
       </c>
@@ -2427,8 +2427,8 @@
       <c r="P7" s="27">
         <v>7</v>
       </c>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
       <c r="T7" s="27">
         <v>1</v>
       </c>
@@ -2491,10 +2491,10 @@
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
-      <c r="R8" s="46" t="s">
+      <c r="R8" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="S8" s="46"/>
+      <c r="S8" s="48"/>
       <c r="T8" s="26"/>
       <c r="U8" s="26"/>
       <c r="V8" s="26"/>
@@ -2887,10 +2887,10 @@
       </c>
     </row>
     <row r="13" spans="1:33" ht="12" customHeight="1">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
@@ -2905,10 +2905,10 @@
       <c r="N13" s="35"/>
       <c r="O13" s="35"/>
       <c r="P13" s="35"/>
-      <c r="R13" s="47" t="s">
+      <c r="R13" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="S13" s="48"/>
+      <c r="S13" s="50"/>
       <c r="T13" s="40"/>
       <c r="U13" s="40"/>
       <c r="V13" s="40"/>
@@ -3301,10 +3301,10 @@
       </c>
     </row>
     <row r="18" spans="1:33" ht="12" customHeight="1">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
@@ -3513,10 +3513,10 @@
       </c>
     </row>
     <row r="23" spans="1:33" ht="12" customHeight="1">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
@@ -3725,10 +3725,10 @@
       </c>
     </row>
     <row r="28" spans="1:33" ht="12" customHeight="1">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="50"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
@@ -3937,10 +3937,10 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="12" customHeight="1">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -4149,10 +4149,10 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="12" customHeight="1">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="43"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
@@ -4361,10 +4361,10 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="12" customHeight="1">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="43"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -5150,13 +5150,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C1:I2"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="J1:P2"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A4:P4"/>
@@ -5166,12 +5159,19 @@
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="R13:S13"/>
     <mergeCell ref="R6:S7"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="T1:Z2"/>
     <mergeCell ref="AA1:AG2"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C1:I2"/>
+    <mergeCell ref="J1:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0"/>
@@ -5190,8 +5190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
